--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Wnt16</t>
+  </si>
+  <si>
+    <t>Fzd2</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt16</t>
-  </si>
-  <si>
-    <t>Fzd2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3685180000000001</v>
+        <v>0.09128733333333333</v>
       </c>
       <c r="H2">
-        <v>1.105554</v>
+        <v>0.273862</v>
       </c>
       <c r="I2">
-        <v>0.4424298074673942</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="J2">
-        <v>0.4620258772003143</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.139245</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N2">
-        <v>0.417735</v>
+        <v>0.252773</v>
       </c>
       <c r="O2">
-        <v>0.01212793695325064</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P2">
-        <v>0.01283499108585158</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q2">
-        <v>0.05131428891000001</v>
+        <v>0.00769165770288889</v>
       </c>
       <c r="R2">
-        <v>0.46182860019</v>
+        <v>0.069224919326</v>
       </c>
       <c r="S2">
-        <v>0.005365760811203378</v>
+        <v>0.001559514866687634</v>
       </c>
       <c r="T2">
-        <v>0.005930098015298793</v>
+        <v>0.001635496373145149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3685180000000001</v>
+        <v>0.09128733333333333</v>
       </c>
       <c r="H3">
-        <v>1.105554</v>
+        <v>0.273862</v>
       </c>
       <c r="I3">
-        <v>0.4424298074673942</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="J3">
-        <v>0.4620258772003143</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>28.142075</v>
       </c>
       <c r="O3">
-        <v>0.8170378621222814</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P3">
-        <v>0.8646708601442703</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q3">
-        <v>3.456953731616668</v>
+        <v>0.8563383270722222</v>
       </c>
       <c r="R3">
-        <v>31.11258358455001</v>
+        <v>7.707044943650001</v>
       </c>
       <c r="S3">
-        <v>0.3614819040323323</v>
+        <v>0.1736260769225289</v>
       </c>
       <c r="T3">
-        <v>0.3995003126477067</v>
+        <v>0.1820853556166156</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3685180000000001</v>
+        <v>0.09128733333333333</v>
       </c>
       <c r="H4">
-        <v>1.105554</v>
+        <v>0.273862</v>
       </c>
       <c r="I4">
-        <v>0.4424298074673942</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="J4">
-        <v>0.4620258772003143</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006356333333333333</v>
+        <v>1.534105</v>
       </c>
       <c r="N4">
-        <v>0.019069</v>
+        <v>3.06821</v>
       </c>
       <c r="O4">
-        <v>0.0005536228225107701</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P4">
-        <v>0.0005858988234553099</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q4">
-        <v>0.002342423247333334</v>
+        <v>0.1400443545033333</v>
       </c>
       <c r="R4">
-        <v>0.021081809226</v>
+        <v>0.84026612702</v>
       </c>
       <c r="S4">
-        <v>0.0002449392387729954</v>
+        <v>0.02839456217111597</v>
       </c>
       <c r="T4">
-        <v>0.0002707004178575716</v>
+        <v>0.01985198706763649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,108 +723,108 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3685180000000001</v>
+        <v>0.09128733333333333</v>
       </c>
       <c r="H5">
-        <v>1.105554</v>
+        <v>0.273862</v>
       </c>
       <c r="I5">
-        <v>0.4424298074673942</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="J5">
-        <v>0.4620258772003143</v>
+        <v>0.2037302918084446</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.897453</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N5">
-        <v>3.794906</v>
+        <v>0.024335</v>
       </c>
       <c r="O5">
-        <v>0.1652640335793479</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P5">
-        <v>0.1165992427774658</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q5">
-        <v>0.6992455846540001</v>
+        <v>0.0007404924188888889</v>
       </c>
       <c r="R5">
-        <v>4.195473507924</v>
+        <v>0.00666443177</v>
       </c>
       <c r="S5">
-        <v>0.07311773455779587</v>
+        <v>0.0001501378481121147</v>
       </c>
       <c r="T5">
-        <v>0.05387186742515107</v>
+        <v>0.0001574527510473318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3685180000000001</v>
+        <v>0.238152</v>
       </c>
       <c r="H6">
-        <v>1.105554</v>
+        <v>0.714456</v>
       </c>
       <c r="I6">
-        <v>0.4424298074673942</v>
+        <v>0.5314951667785021</v>
       </c>
       <c r="J6">
-        <v>0.4620258772003143</v>
+        <v>0.5314951667785019</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05759666666666666</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N6">
-        <v>0.17279</v>
+        <v>0.252773</v>
       </c>
       <c r="O6">
-        <v>0.005016544522609259</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P6">
-        <v>0.005309007168957103</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q6">
-        <v>0.02122540840666667</v>
+        <v>0.020066131832</v>
       </c>
       <c r="R6">
-        <v>0.19102867566</v>
+        <v>0.180595186488</v>
       </c>
       <c r="S6">
-        <v>0.002219468827289625</v>
+        <v>0.004068489799950999</v>
       </c>
       <c r="T6">
-        <v>0.002452898694300163</v>
+        <v>0.004266711689726179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,10 +853,10 @@
         <v>0.714456</v>
       </c>
       <c r="I7">
-        <v>0.2859169525178549</v>
+        <v>0.5314951667785021</v>
       </c>
       <c r="J7">
-        <v>0.298580765951756</v>
+        <v>0.5314951667785019</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.139245</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N7">
-        <v>0.417735</v>
+        <v>28.142075</v>
       </c>
       <c r="O7">
-        <v>0.01212793695325064</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P7">
-        <v>0.01283499108585158</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q7">
-        <v>0.03316147523999999</v>
+        <v>2.2340304818</v>
       </c>
       <c r="R7">
-        <v>0.29845327716</v>
+        <v>20.1062743362</v>
       </c>
       <c r="S7">
-        <v>0.003467582774002102</v>
+        <v>0.452958761762356</v>
       </c>
       <c r="T7">
-        <v>0.003832281469397527</v>
+        <v>0.4750274767307064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,40 +915,40 @@
         <v>0.714456</v>
       </c>
       <c r="I8">
-        <v>0.2859169525178549</v>
+        <v>0.5314951667785021</v>
       </c>
       <c r="J8">
-        <v>0.298580765951756</v>
+        <v>0.5314951667785019</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.380691666666667</v>
+        <v>1.534105</v>
       </c>
       <c r="N8">
-        <v>28.142075</v>
+        <v>3.06821</v>
       </c>
       <c r="O8">
-        <v>0.8170378621222814</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P8">
-        <v>0.8646708601442703</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q8">
-        <v>2.2340304818</v>
+        <v>0.36535017396</v>
       </c>
       <c r="R8">
-        <v>20.1062743362</v>
+        <v>2.19210104376</v>
       </c>
       <c r="S8">
-        <v>0.233604975629706</v>
+        <v>0.07407623295866837</v>
       </c>
       <c r="T8">
-        <v>0.25817408771804</v>
+        <v>0.05179021285317166</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +977,10 @@
         <v>0.714456</v>
       </c>
       <c r="I9">
-        <v>0.2859169525178549</v>
+        <v>0.5314951667785021</v>
       </c>
       <c r="J9">
-        <v>0.298580765951756</v>
+        <v>0.5314951667785019</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,152 +989,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.006356333333333333</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N9">
-        <v>0.019069</v>
+        <v>0.024335</v>
       </c>
       <c r="O9">
-        <v>0.0005536228225107701</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P9">
-        <v>0.0005858988234553099</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q9">
-        <v>0.001513773496</v>
+        <v>0.00193180964</v>
       </c>
       <c r="R9">
-        <v>0.013623961464</v>
+        <v>0.01738628676</v>
       </c>
       <c r="S9">
-        <v>0.0001582901502566127</v>
+        <v>0.0003916822575267436</v>
       </c>
       <c r="T9">
-        <v>0.0001749381194775191</v>
+        <v>0.0004107655048976218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.238152</v>
+        <v>0.11864</v>
       </c>
       <c r="H10">
-        <v>0.714456</v>
+        <v>0.35592</v>
       </c>
       <c r="I10">
-        <v>0.2859169525178549</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="J10">
-        <v>0.298580765951756</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.897453</v>
+        <v>0.08425766666666668</v>
       </c>
       <c r="N10">
-        <v>3.794906</v>
+        <v>0.252773</v>
       </c>
       <c r="O10">
-        <v>0.1652640335793479</v>
+        <v>0.007654801123801229</v>
       </c>
       <c r="P10">
-        <v>0.1165992427774658</v>
+        <v>0.008027752567511702</v>
       </c>
       <c r="Q10">
-        <v>0.451882226856</v>
+        <v>0.009996329573333336</v>
       </c>
       <c r="R10">
-        <v>2.711293361136</v>
+        <v>0.08996696616000001</v>
       </c>
       <c r="S10">
-        <v>0.04725178884181559</v>
+        <v>0.002026796457162596</v>
       </c>
       <c r="T10">
-        <v>0.03481429121789051</v>
+        <v>0.002125544504640373</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.238152</v>
+        <v>0.11864</v>
       </c>
       <c r="H11">
-        <v>0.714456</v>
+        <v>0.35592</v>
       </c>
       <c r="I11">
-        <v>0.2859169525178549</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="J11">
-        <v>0.298580765951756</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.05759666666666666</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N11">
-        <v>0.17279</v>
+        <v>28.142075</v>
       </c>
       <c r="O11">
-        <v>0.005016544522609259</v>
+        <v>0.8522349591772004</v>
       </c>
       <c r="P11">
-        <v>0.005309007168957103</v>
+        <v>0.8937569077249424</v>
       </c>
       <c r="Q11">
-        <v>0.01371676136</v>
+        <v>1.112925259333333</v>
       </c>
       <c r="R11">
-        <v>0.12345085224</v>
+        <v>10.016327334</v>
       </c>
       <c r="S11">
-        <v>0.001434315122074577</v>
+        <v>0.2256501204923155</v>
       </c>
       <c r="T11">
-        <v>0.001585167426950576</v>
+        <v>0.2366440753776203</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,46 +1157,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1202876666666667</v>
+        <v>0.11864</v>
       </c>
       <c r="H12">
-        <v>0.360863</v>
+        <v>0.35592</v>
       </c>
       <c r="I12">
-        <v>0.1444131608334882</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="J12">
-        <v>0.1508094983367045</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.139245</v>
+        <v>1.534105</v>
       </c>
       <c r="N12">
-        <v>0.417735</v>
+        <v>3.06821</v>
       </c>
       <c r="O12">
-        <v>0.01212793695325064</v>
+        <v>0.139373295542195</v>
       </c>
       <c r="P12">
-        <v>0.01283499108585158</v>
+        <v>0.09744249071366434</v>
       </c>
       <c r="Q12">
-        <v>0.016749456145</v>
+        <v>0.1820062172</v>
       </c>
       <c r="R12">
-        <v>0.150745105305</v>
+        <v>1.0920373032</v>
       </c>
       <c r="S12">
-        <v>0.00175143370980819</v>
+        <v>0.03690250041241062</v>
       </c>
       <c r="T12">
-        <v>0.001935638566813351</v>
+        <v>0.02580029079285619</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,542 +1219,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1202876666666667</v>
+        <v>0.11864</v>
       </c>
       <c r="H13">
-        <v>0.360863</v>
+        <v>0.35592</v>
       </c>
       <c r="I13">
-        <v>0.1444131608334882</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="J13">
-        <v>0.1508094983367045</v>
+        <v>0.2647745414130533</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>9.380691666666667</v>
+        <v>0.008111666666666666</v>
       </c>
       <c r="N13">
-        <v>28.142075</v>
+        <v>0.024335</v>
       </c>
       <c r="O13">
-        <v>0.8170378621222814</v>
+        <v>0.0007369441568035466</v>
       </c>
       <c r="P13">
-        <v>0.8646708601442703</v>
+        <v>0.0007728489938814559</v>
       </c>
       <c r="Q13">
-        <v>1.128381512302778</v>
+        <v>0.0009623681333333333</v>
       </c>
       <c r="R13">
-        <v>10.155433610725</v>
+        <v>0.0086613132</v>
       </c>
       <c r="S13">
-        <v>0.1179910201897144</v>
+        <v>0.0001951240511646883</v>
       </c>
       <c r="T13">
-        <v>0.1304005786447242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1202876666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.360863</v>
-      </c>
-      <c r="I14">
-        <v>0.1444131608334882</v>
-      </c>
-      <c r="J14">
-        <v>0.1508094983367045</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.006356333333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.019069</v>
-      </c>
-      <c r="O14">
-        <v>0.0005536228225107701</v>
-      </c>
-      <c r="P14">
-        <v>0.0005858988234553099</v>
-      </c>
-      <c r="Q14">
-        <v>0.0007645885052222222</v>
-      </c>
-      <c r="R14">
-        <v>0.006881296546999999</v>
-      </c>
-      <c r="S14">
-        <v>7.995042170833755E-05</v>
-      </c>
-      <c r="T14">
-        <v>8.835910764136067E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1202876666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.360863</v>
-      </c>
-      <c r="I15">
-        <v>0.1444131608334882</v>
-      </c>
-      <c r="J15">
-        <v>0.1508094983367045</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.897453</v>
-      </c>
-      <c r="N15">
-        <v>3.794906</v>
-      </c>
-      <c r="O15">
-        <v>0.1652640335793479</v>
-      </c>
-      <c r="P15">
-        <v>0.1165992427774658</v>
-      </c>
-      <c r="Q15">
-        <v>0.2282401939796667</v>
-      </c>
-      <c r="R15">
-        <v>1.369441163878</v>
-      </c>
-      <c r="S15">
-        <v>0.02386630146128537</v>
-      </c>
-      <c r="T15">
-        <v>0.01758427330970924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1202876666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.360863</v>
-      </c>
-      <c r="I16">
-        <v>0.1444131608334882</v>
-      </c>
-      <c r="J16">
-        <v>0.1508094983367045</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.05759666666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.17279</v>
-      </c>
-      <c r="O16">
-        <v>0.005016544522609259</v>
-      </c>
-      <c r="P16">
-        <v>0.005309007168957103</v>
-      </c>
-      <c r="Q16">
-        <v>0.006928168641111111</v>
-      </c>
-      <c r="R16">
-        <v>0.06235351777</v>
-      </c>
-      <c r="S16">
-        <v>0.0007244550509719254</v>
-      </c>
-      <c r="T16">
-        <v>0.0008006487078163883</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.1059835</v>
-      </c>
-      <c r="H17">
-        <v>0.211967</v>
-      </c>
-      <c r="I17">
-        <v>0.1272400791812627</v>
-      </c>
-      <c r="J17">
-        <v>0.08858385851122516</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.139245</v>
-      </c>
-      <c r="N17">
-        <v>0.417735</v>
-      </c>
-      <c r="O17">
-        <v>0.01212793695325064</v>
-      </c>
-      <c r="P17">
-        <v>0.01283499108585158</v>
-      </c>
-      <c r="Q17">
-        <v>0.0147576724575</v>
-      </c>
-      <c r="R17">
-        <v>0.088546034745</v>
-      </c>
-      <c r="S17">
-        <v>0.001543159658236974</v>
-      </c>
-      <c r="T17">
-        <v>0.001136973034341913</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <v>0.1059835</v>
-      </c>
-      <c r="H18">
-        <v>0.211967</v>
-      </c>
-      <c r="I18">
-        <v>0.1272400791812627</v>
-      </c>
-      <c r="J18">
-        <v>0.08858385851122516</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>9.380691666666667</v>
-      </c>
-      <c r="N18">
-        <v>28.142075</v>
-      </c>
-      <c r="O18">
-        <v>0.8170378621222814</v>
-      </c>
-      <c r="P18">
-        <v>0.8646708601442703</v>
-      </c>
-      <c r="Q18">
-        <v>0.9941985352541668</v>
-      </c>
-      <c r="R18">
-        <v>5.965191211525001</v>
-      </c>
-      <c r="S18">
-        <v>0.1039599622705287</v>
-      </c>
-      <c r="T18">
-        <v>0.07659588113379939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.1059835</v>
-      </c>
-      <c r="H19">
-        <v>0.211967</v>
-      </c>
-      <c r="I19">
-        <v>0.1272400791812627</v>
-      </c>
-      <c r="J19">
-        <v>0.08858385851122516</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.006356333333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.019069</v>
-      </c>
-      <c r="O19">
-        <v>0.0005536228225107701</v>
-      </c>
-      <c r="P19">
-        <v>0.0005858988234553099</v>
-      </c>
-      <c r="Q19">
-        <v>0.0006736664538333333</v>
-      </c>
-      <c r="R19">
-        <v>0.004041998723</v>
-      </c>
-      <c r="S19">
-        <v>7.044301177282454E-05</v>
-      </c>
-      <c r="T19">
-        <v>5.190117847885846E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>0.1059835</v>
-      </c>
-      <c r="H20">
-        <v>0.211967</v>
-      </c>
-      <c r="I20">
-        <v>0.1272400791812627</v>
-      </c>
-      <c r="J20">
-        <v>0.08858385851122516</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.897453</v>
-      </c>
-      <c r="N20">
-        <v>3.794906</v>
-      </c>
-      <c r="O20">
-        <v>0.1652640335793479</v>
-      </c>
-      <c r="P20">
-        <v>0.1165992427774658</v>
-      </c>
-      <c r="Q20">
-        <v>0.2010987100255</v>
-      </c>
-      <c r="R20">
-        <v>0.8043948401020001</v>
-      </c>
-      <c r="S20">
-        <v>0.02102820871845109</v>
-      </c>
-      <c r="T20">
-        <v>0.01032881082471503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>0.1059835</v>
-      </c>
-      <c r="H21">
-        <v>0.211967</v>
-      </c>
-      <c r="I21">
-        <v>0.1272400791812627</v>
-      </c>
-      <c r="J21">
-        <v>0.08858385851122516</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.05759666666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.17279</v>
-      </c>
-      <c r="O21">
-        <v>0.005016544522609259</v>
-      </c>
-      <c r="P21">
-        <v>0.005309007168957103</v>
-      </c>
-      <c r="Q21">
-        <v>0.006104296321666667</v>
-      </c>
-      <c r="R21">
-        <v>0.03662577793000001</v>
-      </c>
-      <c r="S21">
-        <v>0.0006383055222731319</v>
-      </c>
-      <c r="T21">
-        <v>0.0004702923398899761</v>
+        <v>0.0002046307379365022</v>
       </c>
     </row>
   </sheetData>
